--- a/Scope_1_stationary_fuel.xlsx
+++ b/Scope_1_stationary_fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebs1-my.sharepoint.com/personal/ritu_stok_com/Documents/Ritu/Python Scripts/Carbon_team_Scripts/Emission_factor_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{8BD98073-4372-4DD1-A4C0-91BC7D84BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B84E010E-5A43-4A71-9482-8F003F79EDDA}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{8BD98073-4372-4DD1-A4C0-91BC7D84BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A389F895-A957-4340-933A-B5B179E750B3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1566BAF8-4A8D-4F98-9E32-C18EFED8963F}"/>
+    <workbookView xWindow="10656" yWindow="2424" windowWidth="17280" windowHeight="9960" xr2:uid="{1566BAF8-4A8D-4F98-9E32-C18EFED8963F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,6 +74,24 @@
     <t>Natural Gas</t>
   </si>
   <si>
+    <t>EF Country</t>
+  </si>
+  <si>
+    <t>EF Authority</t>
+  </si>
+  <si>
+    <t>EF Data Year</t>
+  </si>
+  <si>
+    <t>EF Release Year</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>US EPA Emission Factor Hub</t>
+  </si>
+  <si>
     <r>
       <t>CH</t>
     </r>
@@ -94,7 +112,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Factor (kg/ mmBtu)</t>
+      <t xml:space="preserve"> Factor (g/ mmBtu)</t>
     </r>
   </si>
   <si>
@@ -118,26 +136,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>O Factor (kg / mmBtu)</t>
-    </r>
-  </si>
-  <si>
-    <t>EF Country</t>
-  </si>
-  <si>
-    <t>EF Authority</t>
-  </si>
-  <si>
-    <t>EF Data Year</t>
-  </si>
-  <si>
-    <t>EF Release Year</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>US EPA Emission Factor Hub</t>
+      <t>O Factor (g / mmBtu)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -253,10 +253,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,7 +575,7 @@
   <dimension ref="B3:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,22 +596,22 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -632,10 +628,10 @@
         <v>1E-4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3">
         <v>2021</v>
@@ -652,16 +648,16 @@
         <v>70.22</v>
       </c>
       <c r="D5" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>0.6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3">
         <v>2021</v>
@@ -678,16 +674,16 @@
         <v>62.87</v>
       </c>
       <c r="D6" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>0.6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3">
         <v>2021</v>

--- a/Scope_1_stationary_fuel.xlsx
+++ b/Scope_1_stationary_fuel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebs1-my.sharepoint.com/personal/ritu_stok_com/Documents/Ritu/Python Scripts/Carbon_team_Scripts/Emission_factor_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{8BD98073-4372-4DD1-A4C0-91BC7D84BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A389F895-A957-4340-933A-B5B179E750B3}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{8BD98073-4372-4DD1-A4C0-91BC7D84BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD78083E-BAF2-4186-B0DB-1E4175BD3BBA}"/>
   <bookViews>
-    <workbookView xWindow="10656" yWindow="2424" windowWidth="17280" windowHeight="9960" xr2:uid="{1566BAF8-4A8D-4F98-9E32-C18EFED8963F}"/>
+    <workbookView xWindow="8616" yWindow="5028" windowWidth="17280" windowHeight="9960" xr2:uid="{1566BAF8-4A8D-4F98-9E32-C18EFED8963F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="B3:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,10 +622,10 @@
         <v>53</v>
       </c>
       <c r="D4" s="4">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>1E-4</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>

--- a/Scope_1_stationary_fuel.xlsx
+++ b/Scope_1_stationary_fuel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebs1-my.sharepoint.com/personal/ritu_stok_com/Documents/Ritu/Python Scripts/Carbon_team_Scripts/Emission_factor_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{8BD98073-4372-4DD1-A4C0-91BC7D84BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD78083E-BAF2-4186-B0DB-1E4175BD3BBA}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{8BD98073-4372-4DD1-A4C0-91BC7D84BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E52CAD-B777-46CB-9952-618413A60376}"/>
   <bookViews>
-    <workbookView xWindow="8616" yWindow="5028" windowWidth="17280" windowHeight="9960" xr2:uid="{1566BAF8-4A8D-4F98-9E32-C18EFED8963F}"/>
+    <workbookView xWindow="10584" yWindow="3996" windowWidth="17280" windowHeight="9960" xr2:uid="{1566BAF8-4A8D-4F98-9E32-C18EFED8963F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Stationary  combustion fuel</t>
-  </si>
-  <si>
-    <t>Gasoline</t>
   </si>
   <si>
     <t xml:space="preserve">Propane </t>
@@ -138,6 +135,15 @@
       </rPr>
       <t>O Factor (g / mmBtu)</t>
     </r>
+  </si>
+  <si>
+    <t>Motor Gasoline</t>
+  </si>
+  <si>
+    <t>Combustion Type</t>
+  </si>
+  <si>
+    <t>Stationary</t>
   </si>
 </sst>
 </file>
@@ -572,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6B02DA-DB73-43C1-88F6-75818AD780A4}">
-  <dimension ref="B3:I6"/>
+  <dimension ref="B3:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J3" sqref="J3:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,40 +592,44 @@
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="4">
-        <v>53</v>
+        <v>53.06</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -628,10 +638,10 @@
         <v>0.1</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H4" s="3">
         <v>2021</v>
@@ -639,10 +649,13 @@
       <c r="I4" s="3">
         <v>2022</v>
       </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>70.22</v>
@@ -654,10 +667,10 @@
         <v>0.6</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H5" s="3">
         <v>2021</v>
@@ -665,10 +678,13 @@
       <c r="I5" s="3">
         <v>2022</v>
       </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
         <v>62.87</v>
@@ -680,16 +696,19 @@
         <v>0.6</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H6" s="3">
         <v>2021</v>
       </c>
       <c r="I6" s="3">
         <v>2022</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
